--- a/biology/Zoologie/Amara_aenea/Amara_aenea.xlsx
+++ b/biology/Zoologie/Amara_aenea/Amara_aenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amara aenea est une espèce d'insectes coléoptères, de la famille des carabidés et du genre des Amara.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps très convexe, de couleur vert foncé brillant ; élytres finement striés[2]. Les trois premiers articles antennaires ainsi que les tibias sont roux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps très convexe, de couleur vert foncé brillant ; élytres finement striés. Les trois premiers articles antennaires ainsi que les tibias sont roux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se déplace rapidement sur le sol parmi les plantes basses ou les espaces dégagés et secs[2]. Peut voler. Il est omnivore[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se déplace rapidement sur le sol parmi les plantes basses ou les espaces dégagés et secs. Peut voler. Il est omnivore.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amara aena est présent en France (dont Nord-Pas-de-Calais et Lorraine.)
 </t>
@@ -604,9 +622,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 août 2014)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 août 2014) :
 Amara (Amara) devillei Jeannel, 1942
 Amara (Amara) palanda Jedlička, 1957
 Amara (Amara) sincera Lutshnik, 1933
